--- a/Arquitectura de Negocios/Modelo de Dominio/Modelo de Dominio v1.0.xlsx
+++ b/Arquitectura de Negocios/Modelo de Dominio/Modelo de Dominio v1.0.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>Acompañamiento</t>
   </si>
@@ -334,13 +334,28 @@
   </si>
   <si>
     <t>Entidad que identifica a la propuesta realizada por una empresa constructora para la realización de una obra. El ciclo de vida de la propuesta económica inicia cuando es elaborada y presentada por la empresa constructora, y termina cuando es aprobada o rechazada.</t>
+  </si>
+  <si>
+    <t>Entidad que identifica al documento obtenido tras la auditoría realizada por el Contador. El ciclo de vida del dictamen de auditoría inicia cuando es elaborado por el Contador y termina cuando este es presentado al Consejo Directivo.</t>
+  </si>
+  <si>
+    <t>Entidad que identifica al documento presentado por los Programas Rurales e Instituciones Educativas para justificar los gastos realiazdos durante un periodo. El ciclo de vida de la rendición de gastos inicia cuando es elaborado por el Programa Rural o Institución Educativa y termina cuando es archivado como parte para la justificación de gastos.</t>
+  </si>
+  <si>
+    <t>Entidad que identifica al documento que sirve para que el Director del Programa Rural o Institución Educativa brinde su conformidad sobre la finalización de la Obra. El ciclo de vida del acta de recepción y conformidad de obra inicia cuando es elaborado por la empresa constructora y termina cuando es firmado por el director.</t>
+  </si>
+  <si>
+    <t>Entidad que identifica a la posible persona que satisfaga una necesidad de bien o servicio. El ciclo de vida del proveedor inicia cuando presenta una cotización a la institución y termina cuando se rechaza su cotización o, el bien o servicio adquirido es otorgado.</t>
+  </si>
+  <si>
+    <t>MODELO DE DOMINIO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -359,6 +374,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -406,7 +429,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -439,6 +462,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -742,22 +768,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="B5:D58"/>
+  <dimension ref="B2:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="4"/>
+    <col min="1" max="1" width="6.28515625" style="4" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="35.7109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="117" style="3" customWidth="1"/>
     <col min="5" max="16384" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+    </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
         <v>83</v>
@@ -769,7 +806,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B6" s="11">
         <v>1</v>
       </c>
@@ -780,16 +817,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B7" s="11">
         <v>2</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="7"/>
-    </row>
-    <row r="8" spans="2:4" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B8" s="11">
         <v>3</v>
       </c>
@@ -800,7 +839,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B9" s="11">
         <v>4</v>
       </c>
@@ -811,7 +850,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B10" s="11">
         <v>5</v>
       </c>
@@ -822,7 +861,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B11" s="11">
         <v>6</v>
       </c>
@@ -833,7 +872,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B12" s="11">
         <v>7</v>
       </c>
@@ -844,7 +883,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="11">
         <v>8</v>
       </c>
@@ -855,7 +894,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B14" s="11">
         <v>9</v>
       </c>
@@ -866,7 +905,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B15" s="11">
         <v>10</v>
       </c>
@@ -877,7 +916,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B16" s="11">
         <v>11</v>
       </c>
@@ -888,7 +927,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B17" s="11">
         <v>12</v>
       </c>
@@ -899,7 +938,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B18" s="11">
         <v>13</v>
       </c>
@@ -910,7 +949,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B19" s="11">
         <v>14</v>
       </c>
@@ -921,7 +960,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B20" s="11">
         <v>15</v>
       </c>
@@ -932,7 +971,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B21" s="11">
         <v>16</v>
       </c>
@@ -943,7 +982,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B22" s="11">
         <v>17</v>
       </c>
@@ -954,7 +993,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B23" s="11">
         <v>18</v>
       </c>
@@ -965,7 +1004,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="2:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="11">
         <v>19</v>
       </c>
@@ -976,7 +1015,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B25" s="11">
         <v>20</v>
       </c>
@@ -987,16 +1026,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B26" s="11">
         <v>21</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D26" s="7"/>
-    </row>
-    <row r="27" spans="2:4" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D26" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B27" s="11">
         <v>22</v>
       </c>
@@ -1007,7 +1048,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="2:4" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B28" s="11">
         <v>23</v>
       </c>
@@ -1018,7 +1059,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="2:4" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B29" s="11">
         <v>24</v>
       </c>
@@ -1029,7 +1070,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="2:4" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B30" s="11">
         <v>25</v>
       </c>
@@ -1040,7 +1081,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="2:4" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B31" s="11">
         <v>26</v>
       </c>
@@ -1051,7 +1092,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="2:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B32" s="11">
         <v>27</v>
       </c>
@@ -1062,7 +1103,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="2:4" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B33" s="11">
         <v>28</v>
       </c>
@@ -1073,7 +1114,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B34" s="11">
         <v>29</v>
       </c>
@@ -1084,7 +1125,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="35" spans="2:4" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B35" s="11">
         <v>30</v>
       </c>
@@ -1095,7 +1136,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="2:4" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B36" s="11">
         <v>31</v>
       </c>
@@ -1106,7 +1147,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="2:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B37" s="11">
         <v>32</v>
       </c>
@@ -1117,7 +1158,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B38" s="11">
         <v>33</v>
       </c>
@@ -1128,7 +1169,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="2:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B39" s="11">
         <v>34</v>
       </c>
@@ -1139,7 +1180,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="2:4" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B40" s="11">
         <v>35</v>
       </c>
@@ -1150,7 +1191,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="2:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B41" s="11">
         <v>36</v>
       </c>
@@ -1161,7 +1202,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="2:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B42" s="11">
         <v>37</v>
       </c>
@@ -1172,7 +1213,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="2:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B43" s="11">
         <v>38</v>
       </c>
@@ -1183,7 +1224,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="2:4" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B44" s="11">
         <v>39</v>
       </c>
@@ -1194,7 +1235,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="45" spans="2:4" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B45" s="11">
         <v>40</v>
       </c>
@@ -1205,7 +1246,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="46" spans="2:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B46" s="11">
         <v>41</v>
       </c>
@@ -1216,7 +1257,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="2:4" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B47" s="11">
         <v>42</v>
       </c>
@@ -1238,16 +1279,18 @@
         <v>104</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B49" s="11">
         <v>44</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D49" s="7"/>
-    </row>
-    <row r="50" spans="2:4" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D49" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B50" s="11">
         <v>45</v>
       </c>
@@ -1258,7 +1301,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="2:4" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B51" s="11">
         <v>46</v>
       </c>
@@ -1269,7 +1312,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="2:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B52" s="11">
         <v>47</v>
       </c>
@@ -1280,16 +1323,18 @@
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B53" s="11">
         <v>48</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D53" s="7"/>
-    </row>
-    <row r="54" spans="2:4" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D53" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B54" s="11">
         <v>49</v>
       </c>
@@ -1300,7 +1345,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="2:4" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B55" s="11">
         <v>50</v>
       </c>
@@ -1311,7 +1356,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="56" spans="2:4" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B56" s="11">
         <v>51</v>
       </c>
@@ -1322,7 +1367,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="57" spans="2:4" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B57" s="11">
         <v>52</v>
       </c>
@@ -1333,7 +1378,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="2:4" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:4" ht="75" x14ac:dyDescent="0.25">
       <c r="B58" s="11">
         <v>53</v>
       </c>
@@ -1345,14 +1390,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B5:D58">
-    <filterColumn colId="2">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B5:D58"/>
   <sortState ref="C6:D58">
     <sortCondition ref="C6:C58"/>
   </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="B2:D3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Arquitectura de Negocios/Modelo de Dominio/Modelo de Dominio v1.0.xlsx
+++ b/Arquitectura de Negocios/Modelo de Dominio/Modelo de Dominio v1.0.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$B$5:$D$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$B$5:$D$59</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>Acompañamiento</t>
   </si>
@@ -348,7 +348,10 @@
     <t>Entidad que identifica a la posible persona que satisfaga una necesidad de bien o servicio. El ciclo de vida del proveedor inicia cuando presenta una cotización a la institución y termina cuando se rechaza su cotización o, el bien o servicio adquirido es otorgado.</t>
   </si>
   <si>
-    <t>MODELO DE DOMINIO</t>
+    <t>Cuestionario de Necesidades</t>
+  </si>
+  <si>
+    <t>Entidad que identifica al conjunto de necesidades  de construcciones y bienes o servicios presentadas por los Departamentos de la Oficina Central de Fe y Alegría, los Programas Rurales y las Instituciones Educativas. El ciclo de vida del cuestionario de necesidades  inicia cuando el Administrador lo elabora a partir de todos los cuadros de necesidades recibidos y termina cuando todas las necesidades son atendidas.</t>
   </si>
 </sst>
 </file>
@@ -429,11 +432,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -768,634 +768,642 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D58"/>
+  <dimension ref="B2:D59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="117" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="4"/>
+    <col min="1" max="1" width="6.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="117" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="12" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B6" s="10">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B7" s="10">
+        <v>2</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B8" s="10">
+        <v>3</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B9" s="10">
+        <v>4</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B10" s="10">
+        <v>5</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B11" s="10">
+        <v>6</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B12" s="10">
+        <v>7</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="10">
+        <v>8</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B14" s="10">
+        <v>9</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B15" s="10">
+        <v>10</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B16" s="10">
+        <v>11</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B17" s="10">
+        <v>12</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B18" s="10">
+        <v>13</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B19" s="10">
+        <v>14</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B20" s="10">
+        <v>15</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B21" s="10">
+        <v>16</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B22" s="10">
+        <v>17</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B23" s="10">
+        <v>18</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B24" s="10">
+        <v>19</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B25" s="10">
+        <v>20</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="B6" s="11">
-        <v>1</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B7" s="11">
-        <v>2</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B8" s="11">
-        <v>3</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B9" s="11">
-        <v>4</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B10" s="11">
-        <v>5</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="B11" s="11">
-        <v>6</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="B12" s="11">
-        <v>7</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="11">
-        <v>8</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B14" s="11">
-        <v>9</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B15" s="11">
-        <v>10</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B16" s="11">
-        <v>11</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B17" s="11">
-        <v>12</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B18" s="11">
-        <v>13</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B19" s="11">
-        <v>14</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="B20" s="11">
-        <v>15</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="B21" s="11">
+      <c r="D25" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B26" s="10">
+        <v>21</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B22" s="11">
+      <c r="D26" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B23" s="11">
+    </row>
+    <row r="27" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B27" s="10">
+        <v>22</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B28" s="10">
+        <v>23</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B24" s="11">
+      <c r="D28" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="B25" s="11">
+    </row>
+    <row r="29" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B29" s="10">
+        <v>24</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B30" s="10">
+        <v>25</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B26" s="11">
+      <c r="D30" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B27" s="11">
+    </row>
+    <row r="31" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B31" s="10">
+        <v>26</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B32" s="10">
+        <v>27</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B28" s="11">
+      <c r="D32" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B29" s="11">
+    </row>
+    <row r="33" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B33" s="10">
+        <v>28</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B30" s="11">
+      <c r="D33" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="B31" s="11">
+    </row>
+    <row r="34" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B34" s="10">
+        <v>29</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B32" s="11">
+      <c r="D34" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B33" s="11">
+    </row>
+    <row r="35" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B35" s="10">
+        <v>30</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B36" s="10">
+        <v>31</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B34" s="11">
+      <c r="D36" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="B35" s="11">
+    </row>
+    <row r="37" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B37" s="10">
+        <v>32</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B38" s="10">
+        <v>33</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B36" s="11">
+      <c r="D38" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B37" s="11">
+    </row>
+    <row r="39" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B39" s="10">
+        <v>34</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B38" s="11">
+      <c r="D39" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B39" s="11">
+    </row>
+    <row r="40" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B40" s="10">
+        <v>35</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D39" s="7" t="s">
+      <c r="D40" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B40" s="11">
-        <v>35</v>
-      </c>
-      <c r="C40" s="6" t="s">
+    <row r="41" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B41" s="10">
         <v>36</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="C41" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D41" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B41" s="11">
-        <v>36</v>
-      </c>
-      <c r="C41" s="6" t="s">
+    <row r="42" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B42" s="10">
+        <v>37</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D42" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B42" s="11">
-        <v>37</v>
-      </c>
-      <c r="C42" s="6" t="s">
+    <row r="43" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B43" s="10">
+        <v>38</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D43" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B43" s="11">
-        <v>38</v>
-      </c>
-      <c r="C43" s="6" t="s">
+    <row r="44" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B44" s="10">
+        <v>39</v>
+      </c>
+      <c r="C44" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D44" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B44" s="11">
-        <v>39</v>
-      </c>
-      <c r="C44" s="6" t="s">
+    <row r="45" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B45" s="10">
+        <v>40</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D45" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="45" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B45" s="11">
-        <v>40</v>
-      </c>
-      <c r="C45" s="6" t="s">
+    <row r="46" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B46" s="10">
+        <v>41</v>
+      </c>
+      <c r="C46" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D46" s="6" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="46" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B46" s="11">
-        <v>41</v>
-      </c>
-      <c r="C46" s="6" t="s">
+    <row r="47" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B47" s="10">
+        <v>42</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D47" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="2:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="B47" s="11">
-        <v>42</v>
-      </c>
-      <c r="C47" s="6" t="s">
+    <row r="48" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B48" s="10">
+        <v>43</v>
+      </c>
+      <c r="C48" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D48" s="6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="48" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B48" s="11">
-        <v>43</v>
-      </c>
-      <c r="C48" s="6" t="s">
+    <row r="49" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B49" s="10">
+        <v>44</v>
+      </c>
+      <c r="C49" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D49" s="6" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="49" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B49" s="11">
-        <v>44</v>
-      </c>
-      <c r="C49" s="6" t="s">
+    <row r="50" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B50" s="10">
+        <v>45</v>
+      </c>
+      <c r="C50" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="D50" s="6" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="50" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B50" s="11">
-        <v>45</v>
-      </c>
-      <c r="C50" s="6" t="s">
+    <row r="51" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B51" s="10">
         <v>46</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="C51" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D51" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="2:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="B51" s="11">
-        <v>46</v>
-      </c>
-      <c r="C51" s="6" t="s">
+    <row r="52" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B52" s="10">
+        <v>47</v>
+      </c>
+      <c r="C52" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="D52" s="6" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B52" s="11">
-        <v>47</v>
-      </c>
-      <c r="C52" s="6" t="s">
+    <row r="53" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B53" s="10">
         <v>48</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="C53" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D53" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B53" s="11">
-        <v>48</v>
-      </c>
-      <c r="C53" s="6" t="s">
+    <row r="54" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B54" s="10">
+        <v>49</v>
+      </c>
+      <c r="C54" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D53" s="7" t="s">
+      <c r="D54" s="6" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="54" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B54" s="11">
-        <v>49</v>
-      </c>
-      <c r="C54" s="6" t="s">
+    <row r="55" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B55" s="10">
+        <v>50</v>
+      </c>
+      <c r="C55" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D54" s="7" t="s">
+      <c r="D55" s="6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B55" s="11">
+    <row r="56" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B56" s="10">
+        <v>51</v>
+      </c>
+      <c r="C56" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C55" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D55" s="7" t="s">
+      <c r="D56" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="56" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B56" s="11">
-        <v>51</v>
-      </c>
-      <c r="C56" s="6" t="s">
+    <row r="57" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B57" s="10">
+        <v>52</v>
+      </c>
+      <c r="C57" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D56" s="7" t="s">
+      <c r="D57" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="57" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B57" s="11">
+    <row r="58" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B58" s="10">
+        <v>53</v>
+      </c>
+      <c r="C58" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C57" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D57" s="7" t="s">
+      <c r="D58" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="2:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="B58" s="11">
-        <v>53</v>
-      </c>
-      <c r="C58" s="6" t="s">
+    <row r="59" spans="2:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="B59" s="10">
         <v>54</v>
       </c>
-      <c r="D58" s="7" t="s">
+      <c r="C59" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D59" s="6" t="s">
         <v>55</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B5:D58"/>
-  <sortState ref="C6:D58">
-    <sortCondition ref="C6:C58"/>
+  <autoFilter ref="B5:D59"/>
+  <sortState ref="C6:D59">
+    <sortCondition ref="C6:C59"/>
+    <sortCondition ref="D6:D59"/>
   </sortState>
   <mergeCells count="1">
-    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="C2:D3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Arquitectura de Negocios/Modelo de Dominio/Modelo de Dominio v1.0.xlsx
+++ b/Arquitectura de Negocios/Modelo de Dominio/Modelo de Dominio v1.0.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$B$5:$D$59</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$B$5:$D$60</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t>Acompañamiento</t>
   </si>
@@ -352,13 +352,22 @@
   </si>
   <si>
     <t>Entidad que identifica al conjunto de necesidades  de construcciones y bienes o servicios presentadas por los Departamentos de la Oficina Central de Fe y Alegría, los Programas Rurales y las Instituciones Educativas. El ciclo de vida del cuestionario de necesidades  inicia cuando el Administrador lo elabora a partir de todos los cuadros de necesidades recibidos y termina cuando todas las necesidades son atendidas.</t>
+  </si>
+  <si>
+    <t>Plan Operativo Anual del Programa Educativo Rural</t>
+  </si>
+  <si>
+    <t>Entidad que identifica el documento que contiene el Plan Operativo Anual correspondiente a un Programa Educativo Rural. Su ciclo de vida inicia con su creación a inicio de año y termina cuando finaliza el año.</t>
+  </si>
+  <si>
+    <t>MODELO DE DOMINIO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -370,14 +379,6 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -461,10 +462,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -768,10 +769,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D59"/>
+  <dimension ref="B2:D60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B2" sqref="B2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -783,13 +784,17 @@
     <col min="5" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
+    <row r="2" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
@@ -803,7 +808,7 @@
       </c>
     </row>
     <row r="6" spans="2:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="B6" s="10">
+      <c r="B6" s="11">
         <v>1</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -814,7 +819,7 @@
       </c>
     </row>
     <row r="7" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B7" s="10">
+      <c r="B7" s="11">
         <v>2</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -825,7 +830,7 @@
       </c>
     </row>
     <row r="8" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B8" s="10">
+      <c r="B8" s="11">
         <v>3</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -836,7 +841,7 @@
       </c>
     </row>
     <row r="9" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B9" s="10">
+      <c r="B9" s="11">
         <v>4</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -847,7 +852,7 @@
       </c>
     </row>
     <row r="10" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B10" s="10">
+      <c r="B10" s="11">
         <v>5</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -858,7 +863,7 @@
       </c>
     </row>
     <row r="11" spans="2:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="B11" s="10">
+      <c r="B11" s="11">
         <v>6</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -869,7 +874,7 @@
       </c>
     </row>
     <row r="12" spans="2:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="B12" s="10">
+      <c r="B12" s="11">
         <v>7</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -880,7 +885,7 @@
       </c>
     </row>
     <row r="13" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="10">
+      <c r="B13" s="11">
         <v>8</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -891,7 +896,7 @@
       </c>
     </row>
     <row r="14" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B14" s="10">
+      <c r="B14" s="11">
         <v>9</v>
       </c>
       <c r="C14" s="5" t="s">
@@ -902,7 +907,7 @@
       </c>
     </row>
     <row r="15" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B15" s="10">
+      <c r="B15" s="11">
         <v>10</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -913,7 +918,7 @@
       </c>
     </row>
     <row r="16" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B16" s="10">
+      <c r="B16" s="11">
         <v>11</v>
       </c>
       <c r="C16" s="5" t="s">
@@ -924,7 +929,7 @@
       </c>
     </row>
     <row r="17" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B17" s="10">
+      <c r="B17" s="11">
         <v>12</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -935,7 +940,7 @@
       </c>
     </row>
     <row r="18" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B18" s="10">
+      <c r="B18" s="11">
         <v>13</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -946,7 +951,7 @@
       </c>
     </row>
     <row r="19" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B19" s="10">
+      <c r="B19" s="11">
         <v>14</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -957,7 +962,7 @@
       </c>
     </row>
     <row r="20" spans="2:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="B20" s="10">
+      <c r="B20" s="11">
         <v>15</v>
       </c>
       <c r="C20" s="5" t="s">
@@ -968,7 +973,7 @@
       </c>
     </row>
     <row r="21" spans="2:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="B21" s="10">
+      <c r="B21" s="11">
         <v>16</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -979,7 +984,7 @@
       </c>
     </row>
     <row r="22" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B22" s="10">
+      <c r="B22" s="11">
         <v>17</v>
       </c>
       <c r="C22" s="5" t="s">
@@ -990,7 +995,7 @@
       </c>
     </row>
     <row r="23" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B23" s="10">
+      <c r="B23" s="11">
         <v>18</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -1001,7 +1006,7 @@
       </c>
     </row>
     <row r="24" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B24" s="10">
+      <c r="B24" s="11">
         <v>19</v>
       </c>
       <c r="C24" s="5" t="s">
@@ -1012,7 +1017,7 @@
       </c>
     </row>
     <row r="25" spans="2:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="B25" s="10">
+      <c r="B25" s="11">
         <v>20</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -1023,7 +1028,7 @@
       </c>
     </row>
     <row r="26" spans="2:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="B26" s="10">
+      <c r="B26" s="11">
         <v>21</v>
       </c>
       <c r="C26" s="5" t="s">
@@ -1034,7 +1039,7 @@
       </c>
     </row>
     <row r="27" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B27" s="10">
+      <c r="B27" s="11">
         <v>22</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -1045,7 +1050,7 @@
       </c>
     </row>
     <row r="28" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B28" s="10">
+      <c r="B28" s="11">
         <v>23</v>
       </c>
       <c r="C28" s="5" t="s">
@@ -1056,7 +1061,7 @@
       </c>
     </row>
     <row r="29" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B29" s="10">
+      <c r="B29" s="11">
         <v>24</v>
       </c>
       <c r="C29" s="5" t="s">
@@ -1067,7 +1072,7 @@
       </c>
     </row>
     <row r="30" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B30" s="10">
+      <c r="B30" s="11">
         <v>25</v>
       </c>
       <c r="C30" s="5" t="s">
@@ -1078,7 +1083,7 @@
       </c>
     </row>
     <row r="31" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B31" s="10">
+      <c r="B31" s="11">
         <v>26</v>
       </c>
       <c r="C31" s="5" t="s">
@@ -1089,7 +1094,7 @@
       </c>
     </row>
     <row r="32" spans="2:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="B32" s="10">
+      <c r="B32" s="11">
         <v>27</v>
       </c>
       <c r="C32" s="5" t="s">
@@ -1100,7 +1105,7 @@
       </c>
     </row>
     <row r="33" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B33" s="10">
+      <c r="B33" s="11">
         <v>28</v>
       </c>
       <c r="C33" s="5" t="s">
@@ -1111,7 +1116,7 @@
       </c>
     </row>
     <row r="34" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B34" s="10">
+      <c r="B34" s="11">
         <v>29</v>
       </c>
       <c r="C34" s="5" t="s">
@@ -1122,7 +1127,7 @@
       </c>
     </row>
     <row r="35" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B35" s="10">
+      <c r="B35" s="11">
         <v>30</v>
       </c>
       <c r="C35" s="5" t="s">
@@ -1133,7 +1138,7 @@
       </c>
     </row>
     <row r="36" spans="2:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="B36" s="10">
+      <c r="B36" s="11">
         <v>31</v>
       </c>
       <c r="C36" s="5" t="s">
@@ -1144,7 +1149,7 @@
       </c>
     </row>
     <row r="37" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B37" s="10">
+      <c r="B37" s="11">
         <v>32</v>
       </c>
       <c r="C37" s="5" t="s">
@@ -1155,7 +1160,7 @@
       </c>
     </row>
     <row r="38" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B38" s="10">
+      <c r="B38" s="11">
         <v>33</v>
       </c>
       <c r="C38" s="5" t="s">
@@ -1166,7 +1171,7 @@
       </c>
     </row>
     <row r="39" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B39" s="10">
+      <c r="B39" s="11">
         <v>34</v>
       </c>
       <c r="C39" s="5" t="s">
@@ -1177,7 +1182,7 @@
       </c>
     </row>
     <row r="40" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B40" s="10">
+      <c r="B40" s="11">
         <v>35</v>
       </c>
       <c r="C40" s="5" t="s">
@@ -1188,7 +1193,7 @@
       </c>
     </row>
     <row r="41" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B41" s="10">
+      <c r="B41" s="11">
         <v>36</v>
       </c>
       <c r="C41" s="5" t="s">
@@ -1199,7 +1204,7 @@
       </c>
     </row>
     <row r="42" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B42" s="10">
+      <c r="B42" s="11">
         <v>37</v>
       </c>
       <c r="C42" s="5" t="s">
@@ -1210,7 +1215,7 @@
       </c>
     </row>
     <row r="43" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B43" s="10">
+      <c r="B43" s="11">
         <v>38</v>
       </c>
       <c r="C43" s="5" t="s">
@@ -1221,189 +1226,200 @@
       </c>
     </row>
     <row r="44" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B44" s="10">
+      <c r="B44" s="11">
         <v>39</v>
       </c>
       <c r="C44" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B45" s="11">
+        <v>40</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="D45" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B45" s="10">
-        <v>40</v>
-      </c>
-      <c r="C45" s="5" t="s">
+    <row r="46" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B46" s="11">
+        <v>41</v>
+      </c>
+      <c r="C46" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="D46" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="46" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B46" s="10">
-        <v>41</v>
-      </c>
-      <c r="C46" s="5" t="s">
+    <row r="47" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B47" s="11">
+        <v>42</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="D47" s="6" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="47" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B47" s="10">
-        <v>42</v>
-      </c>
-      <c r="C47" s="5" t="s">
+    <row r="48" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B48" s="11">
+        <v>43</v>
+      </c>
+      <c r="C48" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="D48" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="2:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="B48" s="10">
-        <v>43</v>
-      </c>
-      <c r="C48" s="5" t="s">
+    <row r="49" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B49" s="11">
+        <v>44</v>
+      </c>
+      <c r="C49" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D48" s="6" t="s">
+      <c r="D49" s="6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="49" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B49" s="10">
-        <v>44</v>
-      </c>
-      <c r="C49" s="5" t="s">
+    <row r="50" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B50" s="11">
+        <v>45</v>
+      </c>
+      <c r="C50" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D49" s="6" t="s">
+      <c r="D50" s="6" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="50" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B50" s="10">
-        <v>45</v>
-      </c>
-      <c r="C50" s="5" t="s">
+    <row r="51" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B51" s="11">
+        <v>46</v>
+      </c>
+      <c r="C51" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D50" s="6" t="s">
+      <c r="D51" s="6" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="51" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B51" s="10">
+    <row r="52" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B52" s="11">
+        <v>47</v>
+      </c>
+      <c r="C52" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C51" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D51" s="6" t="s">
+      <c r="D52" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="52" spans="2:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="B52" s="10">
-        <v>47</v>
-      </c>
-      <c r="C52" s="5" t="s">
+    <row r="53" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B53" s="11">
+        <v>48</v>
+      </c>
+      <c r="C53" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D52" s="6" t="s">
+      <c r="D53" s="6" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="53" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B53" s="10">
+    <row r="54" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B54" s="11">
+        <v>49</v>
+      </c>
+      <c r="C54" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C53" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D53" s="6" t="s">
+      <c r="D54" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="54" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B54" s="10">
-        <v>49</v>
-      </c>
-      <c r="C54" s="5" t="s">
+    <row r="55" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B55" s="11">
+        <v>50</v>
+      </c>
+      <c r="C55" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D54" s="6" t="s">
+      <c r="D55" s="6" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="55" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B55" s="10">
+    <row r="56" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B56" s="11">
+        <v>51</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B57" s="11">
+        <v>52</v>
+      </c>
+      <c r="C57" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C55" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B56" s="10">
+      <c r="D57" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C56" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B57" s="10">
+    </row>
+    <row r="58" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B58" s="11">
+        <v>53</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B59" s="11">
+        <v>54</v>
+      </c>
+      <c r="C59" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C57" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B58" s="10">
+      <c r="D59" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C58" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="B59" s="10">
+    </row>
+    <row r="60" spans="2:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="B60" s="11">
+        <v>55</v>
+      </c>
+      <c r="C60" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C59" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D59" s="6" t="s">
+      <c r="D60" s="6" t="s">
         <v>55</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B5:D59"/>
-  <sortState ref="C6:D59">
-    <sortCondition ref="C6:C59"/>
-    <sortCondition ref="D6:D59"/>
+  <autoFilter ref="B5:D60"/>
+  <sortState ref="C6:D60">
+    <sortCondition ref="C6:C60"/>
+    <sortCondition ref="D6:D60"/>
   </sortState>
   <mergeCells count="1">
-    <mergeCell ref="C2:D3"/>
+    <mergeCell ref="B2:D3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Arquitectura de Negocios/Modelo de Dominio/Modelo de Dominio v1.0.xlsx
+++ b/Arquitectura de Negocios/Modelo de Dominio/Modelo de Dominio v1.0.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$B$5:$D$60</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$C$5:$D$60</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
   <si>
     <t>Acompañamiento</t>
   </si>
@@ -361,13 +361,19 @@
   </si>
   <si>
     <t>MODELO DE DOMINIO</t>
+  </si>
+  <si>
+    <t>Donante</t>
+  </si>
+  <si>
+    <t>Entidad que identifica a la persona que posiblemente realice una donación a la Asociación Fe y Alegría. El ciclo de vida del donante inicia cuando la Encargada de Donaciones envía la carta al posible donante y termina cuando éste deja de realizar donaciones por un periodo prolongado.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -385,7 +391,15 @@
     </font>
     <font>
       <b/>
-      <sz val="24"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -459,14 +473,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -769,32 +783,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D60"/>
+  <dimension ref="B2:D61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D3"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="6.28515625" style="3" customWidth="1"/>
     <col min="3" max="3" width="33.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="117" style="2" customWidth="1"/>
     <col min="5" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
@@ -808,7 +821,7 @@
       </c>
     </row>
     <row r="6" spans="2:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="B6" s="11">
+      <c r="B6" s="10">
         <v>1</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -819,7 +832,7 @@
       </c>
     </row>
     <row r="7" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B7" s="11">
+      <c r="B7" s="10">
         <v>2</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -830,7 +843,7 @@
       </c>
     </row>
     <row r="8" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B8" s="11">
+      <c r="B8" s="10">
         <v>3</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -841,7 +854,7 @@
       </c>
     </row>
     <row r="9" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B9" s="11">
+      <c r="B9" s="10">
         <v>4</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -852,7 +865,7 @@
       </c>
     </row>
     <row r="10" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B10" s="11">
+      <c r="B10" s="10">
         <v>5</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -863,7 +876,7 @@
       </c>
     </row>
     <row r="11" spans="2:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="B11" s="11">
+      <c r="B11" s="10">
         <v>6</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -874,7 +887,7 @@
       </c>
     </row>
     <row r="12" spans="2:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="B12" s="11">
+      <c r="B12" s="10">
         <v>7</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -885,7 +898,7 @@
       </c>
     </row>
     <row r="13" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="11">
+      <c r="B13" s="10">
         <v>8</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -896,7 +909,7 @@
       </c>
     </row>
     <row r="14" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B14" s="11">
+      <c r="B14" s="10">
         <v>9</v>
       </c>
       <c r="C14" s="5" t="s">
@@ -907,7 +920,7 @@
       </c>
     </row>
     <row r="15" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B15" s="11">
+      <c r="B15" s="10">
         <v>10</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -918,7 +931,7 @@
       </c>
     </row>
     <row r="16" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B16" s="11">
+      <c r="B16" s="10">
         <v>11</v>
       </c>
       <c r="C16" s="5" t="s">
@@ -929,7 +942,7 @@
       </c>
     </row>
     <row r="17" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B17" s="11">
+      <c r="B17" s="10">
         <v>12</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -940,7 +953,7 @@
       </c>
     </row>
     <row r="18" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B18" s="11">
+      <c r="B18" s="10">
         <v>13</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -951,7 +964,7 @@
       </c>
     </row>
     <row r="19" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B19" s="11">
+      <c r="B19" s="10">
         <v>14</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -962,7 +975,7 @@
       </c>
     </row>
     <row r="20" spans="2:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="B20" s="11">
+      <c r="B20" s="10">
         <v>15</v>
       </c>
       <c r="C20" s="5" t="s">
@@ -973,7 +986,7 @@
       </c>
     </row>
     <row r="21" spans="2:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="B21" s="11">
+      <c r="B21" s="10">
         <v>16</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -984,7 +997,7 @@
       </c>
     </row>
     <row r="22" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B22" s="11">
+      <c r="B22" s="10">
         <v>17</v>
       </c>
       <c r="C22" s="5" t="s">
@@ -995,7 +1008,7 @@
       </c>
     </row>
     <row r="23" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B23" s="11">
+      <c r="B23" s="10">
         <v>18</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -1006,7 +1019,7 @@
       </c>
     </row>
     <row r="24" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B24" s="11">
+      <c r="B24" s="10">
         <v>19</v>
       </c>
       <c r="C24" s="5" t="s">
@@ -1017,7 +1030,7 @@
       </c>
     </row>
     <row r="25" spans="2:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="B25" s="11">
+      <c r="B25" s="10">
         <v>20</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -1028,7 +1041,7 @@
       </c>
     </row>
     <row r="26" spans="2:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="B26" s="11">
+      <c r="B26" s="10">
         <v>21</v>
       </c>
       <c r="C26" s="5" t="s">
@@ -1039,7 +1052,7 @@
       </c>
     </row>
     <row r="27" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B27" s="11">
+      <c r="B27" s="10">
         <v>22</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -1050,7 +1063,7 @@
       </c>
     </row>
     <row r="28" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B28" s="11">
+      <c r="B28" s="10">
         <v>23</v>
       </c>
       <c r="C28" s="5" t="s">
@@ -1061,362 +1074,372 @@
       </c>
     </row>
     <row r="29" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B29" s="11">
+      <c r="B29" s="10">
         <v>24</v>
       </c>
       <c r="C29" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B30" s="10">
+        <v>25</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D30" s="6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B30" s="11">
+    <row r="31" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B31" s="10">
+        <v>26</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B32" s="10">
+        <v>27</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B33" s="10">
+        <v>28</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B34" s="10">
+        <v>29</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B31" s="11">
+    </row>
+    <row r="35" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B35" s="10">
+        <v>30</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="B32" s="11">
+      <c r="D35" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B33" s="11">
+    </row>
+    <row r="36" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B36" s="10">
+        <v>31</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B37" s="10">
+        <v>32</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B34" s="11">
+      <c r="D37" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B35" s="11">
+    </row>
+    <row r="38" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B38" s="10">
+        <v>33</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B39" s="10">
+        <v>34</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="B36" s="11">
+      <c r="D39" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B37" s="11">
+    </row>
+    <row r="40" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B40" s="10">
+        <v>35</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B38" s="11">
+      <c r="D40" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B39" s="11">
+    </row>
+    <row r="41" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B41" s="10">
+        <v>36</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B40" s="11">
+      <c r="D41" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B41" s="11">
+    </row>
+    <row r="42" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B42" s="10">
+        <v>37</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D41" s="6" t="s">
+      <c r="D42" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B42" s="11">
-        <v>37</v>
-      </c>
-      <c r="C42" s="5" t="s">
+    <row r="43" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B43" s="10">
         <v>38</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="C43" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D43" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B43" s="11">
-        <v>38</v>
-      </c>
-      <c r="C43" s="5" t="s">
+    <row r="44" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B44" s="10">
+        <v>39</v>
+      </c>
+      <c r="C44" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="D44" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B44" s="11">
-        <v>39</v>
-      </c>
-      <c r="C44" s="5" t="s">
+    <row r="45" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B45" s="10">
+        <v>40</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="D45" s="6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="45" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B45" s="11">
-        <v>40</v>
-      </c>
-      <c r="C45" s="5" t="s">
+    <row r="46" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B46" s="10">
+        <v>41</v>
+      </c>
+      <c r="C46" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="D46" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B46" s="11">
-        <v>41</v>
-      </c>
-      <c r="C46" s="5" t="s">
+    <row r="47" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B47" s="10">
+        <v>42</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="D47" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B47" s="11">
-        <v>42</v>
-      </c>
-      <c r="C47" s="5" t="s">
+    <row r="48" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B48" s="10">
+        <v>43</v>
+      </c>
+      <c r="C48" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="D48" s="6" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B48" s="11">
-        <v>43</v>
-      </c>
-      <c r="C48" s="5" t="s">
+    <row r="49" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B49" s="10">
         <v>44</v>
       </c>
-      <c r="D48" s="6" t="s">
+      <c r="C49" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D49" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="2:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="B49" s="11">
-        <v>44</v>
-      </c>
-      <c r="C49" s="5" t="s">
+    <row r="50" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B50" s="10">
+        <v>45</v>
+      </c>
+      <c r="C50" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D49" s="6" t="s">
+      <c r="D50" s="6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="50" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B50" s="11">
-        <v>45</v>
-      </c>
-      <c r="C50" s="5" t="s">
+    <row r="51" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B51" s="10">
+        <v>46</v>
+      </c>
+      <c r="C51" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D50" s="6" t="s">
+      <c r="D51" s="6" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="51" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B51" s="11">
+    <row r="52" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B52" s="10">
+        <v>47</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B53" s="10">
+        <v>48</v>
+      </c>
+      <c r="C53" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C51" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B52" s="11">
+      <c r="D53" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C52" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="B53" s="11">
+    </row>
+    <row r="54" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B54" s="10">
+        <v>49</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B55" s="10">
+        <v>50</v>
+      </c>
+      <c r="C55" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C53" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B54" s="11">
+      <c r="D55" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C54" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B55" s="11">
+    </row>
+    <row r="56" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B56" s="10">
+        <v>51</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B57" s="10">
+        <v>52</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B58" s="10">
+        <v>53</v>
+      </c>
+      <c r="C58" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C55" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B56" s="11">
+      <c r="D58" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C56" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B57" s="11">
+    </row>
+    <row r="59" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B59" s="10">
+        <v>54</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B60" s="10">
+        <v>55</v>
+      </c>
+      <c r="C60" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C57" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B58" s="11">
+      <c r="D60" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C58" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B59" s="11">
+    </row>
+    <row r="61" spans="2:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="B61" s="10">
+        <v>56</v>
+      </c>
+      <c r="C61" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C59" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="B60" s="11">
+      <c r="D61" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C60" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>55</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="B5:D60"/>
-  <sortState ref="C6:D60">
-    <sortCondition ref="C6:C60"/>
-    <sortCondition ref="D6:D60"/>
+  <sortState ref="C6:D61">
+    <sortCondition ref="C6:C61"/>
+    <sortCondition ref="D6:D61"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="B2:D3"/>
